--- a/biology/Zoologie/Brachyophis_revoili/Brachyophis_revoili.xlsx
+++ b/biology/Zoologie/Brachyophis_revoili/Brachyophis_revoili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyophis revoili, unique représentant du genre Brachyophis, est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyophis revoili, unique représentant du genre Brachyophis, est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Somalie et au Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Somalie et au Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Brachyophis revoili revoili Mocquard, 1888
 Brachyophis revoili cornii Scortecci, 1932
 Brachyophis revoili krameri Lanza, 1966</t>
@@ -606,9 +624,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Georges Emmanuel Joseph Révoil (1852-1894)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Georges Emmanuel Joseph Révoil (1852-1894).
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lanza, 1966 : Il genere Brachyophis e descrizione di una nuova forma (Reptilia, Serpentes, Colubridae). Monitore zoologico italiano, vol. 74, no 1-3, p. 30-48 (texte intégral).
 Mocquard, 1888 : Sur une collection de reptiles et de batraciens rapportés des pays somalis et de Zanzibar par M. G. Révoil. Mémoires Publies par la Société Philomathique à l’occasion du Centenaire de sa fondation 1788—1888, Paris, p. 109-134.
